--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -45,16 +45,22 @@
 Apex charts – Line charts with markers.</t>
   </si>
   <si>
+    <t xml:space="preserve">Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in new version.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top 5 trending expense items in the last twelve months</t>
   </si>
   <si>
     <t xml:space="preserve">Selection of year and month for the pie chart showing the expenses for different categories</t>
   </si>
   <si>
-    <t xml:space="preserve">Investments tab in the left section along with Dashboard and expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile page</t>
+    <t xml:space="preserve">Investments module need to be implemented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile module need to be implemented.</t>
   </si>
   <si>
     <t xml:space="preserve">Change last six month to last twelve month categories – also show the percentage of that category out of total expense during the last twelve months.
@@ -186,14 +192,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.18"/>
   </cols>
@@ -226,6 +232,12 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -233,7 +245,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,7 +254,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -252,7 +264,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,7 +273,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,7 +282,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,7 +345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
